--- a/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-3.716630083880457</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.060366827390592</v>
+        <v>-2.060366827390589</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.14721455999429</v>
+        <v>-6.095586296356026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.354925091695906</v>
+        <v>-4.526040510126681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.942858746476448</v>
+        <v>-2.253938927254687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.678423984984978</v>
+        <v>-8.908185419257293</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.83417775131895</v>
+        <v>-11.50411830520422</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.95803454063551</v>
+        <v>-10.36255269088992</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.372130556573707</v>
+        <v>-6.282322286041435</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.004099830720172</v>
+        <v>-6.774204585816141</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.996982378627711</v>
+        <v>-5.078974219202229</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.899548740077076</v>
+        <v>2.024917186889588</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.806183212117178</v>
+        <v>3.294911075865453</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.090299233872546</v>
+        <v>5.790588366955175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.3146363511032336</v>
+        <v>0.5046153393163827</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-2.665865574880967</v>
+        <v>-1.983242933472169</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.964319881137744</v>
+        <v>-1.884940227316826</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.2517946018953026</v>
+        <v>-0.01802777284812386</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.6171796863573852</v>
+        <v>-0.6762221281649652</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8634807213643946</v>
+        <v>0.8173404969116335</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.1560507429077175</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.08650895214759295</v>
+        <v>-0.08650895214759283</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3052513211116612</v>
+        <v>-0.3068675223545463</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2139459523076362</v>
+        <v>-0.2209371514511808</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0984492104692663</v>
+        <v>-0.1137364114456408</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3023414492600727</v>
+        <v>-0.2813670198421183</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3709955179762208</v>
+        <v>-0.3657113050946867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3308041750489456</v>
+        <v>-0.3225094525666764</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2546608042286697</v>
+        <v>-0.2512021492635253</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2733535144190145</v>
+        <v>-0.2740229745836058</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1959892942191385</v>
+        <v>-0.2008988190307082</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1201389213917283</v>
+        <v>0.1203363592554755</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2275891885293879</v>
+        <v>0.2046381228933597</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3776932532876336</v>
+        <v>0.3598805213526904</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.01145205672349915</v>
+        <v>0.02134886482586696</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09758296872948734</v>
+        <v>-0.07234864845292344</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.06579903161097039</v>
+        <v>-0.06923898812727965</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.01190636838278596</v>
+        <v>-0.00234888203648242</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.02620238380419026</v>
+        <v>-0.03127378431280523</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.04193859006201096</v>
+        <v>0.03757149895628153</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-6.984897495398934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-7.981980096768057</v>
+        <v>-7.98198009676806</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-10.23320739177149</v>
@@ -869,7 +869,7 @@
         <v>-10.43922436921831</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-11.94220621604586</v>
+        <v>-11.94220621604585</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-8.657498838433137</v>
@@ -878,7 +878,7 @@
         <v>-8.689780504856486</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-9.943655852560932</v>
+        <v>-9.943655852560926</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.66746960257145</v>
+        <v>-10.70776013907152</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.57318121958821</v>
+        <v>-10.4541731475613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.80939864670722</v>
+        <v>-11.57331273010094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-14.26509920504442</v>
+        <v>-14.33006905253323</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-14.23323371187901</v>
+        <v>-14.12922675037806</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-16.08861768948509</v>
+        <v>-15.62385871681978</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-11.42228662994981</v>
+        <v>-11.37408811143157</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.40991935555039</v>
+        <v>-11.47722941200271</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-12.51601998641588</v>
+        <v>-12.87270037312886</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.889731186384358</v>
+        <v>-3.469721663682161</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.635144820656929</v>
+        <v>-3.77722962681603</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.756351777321273</v>
+        <v>-4.520959935412783</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.860583583043331</v>
+        <v>-6.150322860788638</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-5.87759771886641</v>
+        <v>-6.187494832783018</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-8.265162691590826</v>
+        <v>-8.152531672115398</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-6.05964729277413</v>
+        <v>-5.716328551229244</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-6.063990403509751</v>
+        <v>-5.877711126181318</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-7.140853862827662</v>
+        <v>-7.278372354388134</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3237944523106559</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.370015576533519</v>
+        <v>-0.3700155765335191</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.3091966637100131</v>
@@ -974,7 +974,7 @@
         <v>-0.3154214727708945</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3608341136824305</v>
+        <v>-0.3608341136824302</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3165014300885112</v>
@@ -983,7 +983,7 @@
         <v>-0.3176815854404558</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3635208454978108</v>
+        <v>-0.3635208454978107</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.450739157308437</v>
+        <v>-0.449210999768807</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4538221381366422</v>
+        <v>-0.4468416724749721</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4906167199537391</v>
+        <v>-0.4789083955869918</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.410647101996433</v>
+        <v>-0.4041309230097977</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4088654928200627</v>
+        <v>-0.404073784354987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.451318501940641</v>
+        <v>-0.4423733114582972</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3982874452636923</v>
+        <v>-0.3929698567033438</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.388646033891161</v>
+        <v>-0.4008596914534302</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4335201589970268</v>
+        <v>-0.4367368287864575</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1911508811373882</v>
+        <v>-0.1684043727006458</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1886958396789268</v>
+        <v>-0.18831314939443</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2363006922713859</v>
+        <v>-0.2268242004073165</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.190223805930902</v>
+        <v>-0.1970009836743437</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1913015380375739</v>
+        <v>-0.1940572812763887</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2729146691625104</v>
+        <v>-0.2617549892688302</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2316426215650096</v>
+        <v>-0.2199612042349991</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2314324613885015</v>
+        <v>-0.2254130373753221</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2787841078550494</v>
+        <v>-0.2818903214470758</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.975211179214856</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.527922663607523</v>
+        <v>-1.52792266360752</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.9831974342738137</v>
@@ -1092,7 +1092,7 @@
         <v>-2.698212765175772</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.5037795286660152</v>
+        <v>-0.5037795286660124</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.963057788833958</v>
+        <v>-3.509556437279925</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.944169512601319</v>
+        <v>-6.334841059013034</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.92271774654249</v>
+        <v>-5.578366075723456</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.565786844364059</v>
+        <v>-3.590550154317064</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.140874835229386</v>
+        <v>-7.963051933470797</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.33403818061872</v>
+        <v>-3.644476004752439</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.94383540523135</v>
+        <v>-1.922026662299485</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.811495468762846</v>
+        <v>-5.523543524437915</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.476378034894603</v>
+        <v>-3.641662332311174</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.3800753891611</v>
+        <v>5.155737140840748</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.079256843233579</v>
+        <v>1.723354802842065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.426339184424664</v>
+        <v>2.90458191029417</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.63983532125367</v>
+        <v>5.546199603869312</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7644435365410693</v>
+        <v>0.7629709124545673</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.649306505188874</v>
+        <v>4.936172174802846</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.411719001436492</v>
+        <v>4.592765349332844</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09289782840170337</v>
+        <v>0.7852807271206041</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.321397136794911</v>
+        <v>2.609412642560031</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1154114292801351</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.08927639752755458</v>
+        <v>-0.08927639752755442</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.04172207067798869</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1325734625913064</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.02475260563579726</v>
+        <v>-0.02475260563579713</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1588870859331525</v>
+        <v>-0.175309032171397</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3089664008196749</v>
+        <v>-0.3181891376762923</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3021271896850223</v>
+        <v>-0.289930560481196</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1360149174828704</v>
+        <v>-0.1391997381452071</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3048930008246927</v>
+        <v>-0.3013562298947247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1303628319175362</v>
+        <v>-0.1374162050863971</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09102297259150038</v>
+        <v>-0.08878791388198598</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2646517172913946</v>
+        <v>-0.2558841912717153</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1584631163323094</v>
+        <v>-0.1642442972666195</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3695763770757841</v>
+        <v>0.3473932435396738</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.136784972422969</v>
+        <v>0.1226819291891248</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1632510649897216</v>
+        <v>0.187924815297845</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2636642594010432</v>
+        <v>0.2635080696063692</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04347132322378027</v>
+        <v>0.0372411699443545</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2094218733157288</v>
+        <v>0.2342026879215427</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.229204916092506</v>
+        <v>0.2392484484743382</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.005244444414259212</v>
+        <v>0.04075503911144662</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1264755977130055</v>
+        <v>0.1383785972600461</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-5.878136648437285</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.109382656049211</v>
+        <v>-3.109382656049217</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.445632115412538</v>
+        <v>-3.051920658587561</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.800281301970978</v>
+        <v>-7.774492016774112</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.861791702210614</v>
+        <v>-4.587657678683773</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.259805206209276</v>
+        <v>-5.59789859768744</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.26081386907437</v>
+        <v>-11.33291750466248</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.599362893475579</v>
+        <v>-8.91015505303011</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.366318266161482</v>
+        <v>-3.452495365949087</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.485136923866847</v>
+        <v>-8.579553909085631</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.667343131711923</v>
+        <v>-5.742570247412733</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.161696564766464</v>
+        <v>4.159847330934214</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8342129773898264</v>
+        <v>-1.123818722603162</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.575244567733362</v>
+        <v>2.578476235287563</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.626100987018694</v>
+        <v>2.316696660898717</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.386727400221351</v>
+        <v>-3.280254304013624</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.437198945649083</v>
+        <v>-1.391764450466478</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.306864711419689</v>
+        <v>2.357440485071424</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.310411352989969</v>
+        <v>-3.074190575636551</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.7155954001104599</v>
+        <v>-0.4953240272582392</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.229522941160329</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1214117151562073</v>
+        <v>-0.1214117151562075</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1487705425915951</v>
+        <v>-0.143430578552774</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3569921210526644</v>
+        <v>-0.3545227596384982</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2224385493592914</v>
+        <v>-0.2132326353782045</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.162238357635722</v>
+        <v>-0.1697336383741992</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3420802475374091</v>
+        <v>-0.3466737781302739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2631318109671982</v>
+        <v>-0.268359902413021</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1262685226935017</v>
+        <v>-0.1293167684981236</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3155045081216809</v>
+        <v>-0.3159924158434265</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2076885296755751</v>
+        <v>-0.2101612967703904</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2276403830231249</v>
+        <v>0.2229142419824972</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.04490139297265242</v>
+        <v>-0.05401330041003178</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.142897252828822</v>
+        <v>0.1403090061187852</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.09492419002476558</v>
+        <v>0.08073803892407824</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1153753941831172</v>
+        <v>-0.1148902321646378</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.05339443815994689</v>
+        <v>-0.04817418567883963</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09507040124363469</v>
+        <v>0.09592089318940401</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1365057178408668</v>
+        <v>-0.1283600991154019</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.02829029183421407</v>
+        <v>-0.01934541255819405</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-7.43179882131775</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-6.169714181739355</v>
+        <v>-6.169714181739364</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.204114752238105</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.245850153240069</v>
+        <v>-4.1451682321309</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.660263971219409</v>
+        <v>-5.778020180455004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.39657827185027</v>
+        <v>-4.703181080477516</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.219530382279345</v>
+        <v>-6.549892128715544</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.627014033753465</v>
+        <v>-9.489244296926989</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.07712863320047</v>
+        <v>-8.177808827614097</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.82549999158157</v>
+        <v>-4.730184069320733</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.090416176613269</v>
+        <v>-6.918047311080556</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.892048222008282</v>
+        <v>-5.788024522102242</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1306160497953325</v>
+        <v>-0.1571960518491973</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.00578996647317</v>
+        <v>-2.055720687771499</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.7199247148560253</v>
+        <v>-0.8233288217408001</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.039953796351417</v>
+        <v>-2.072836416684467</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-5.315740196653342</v>
+        <v>-5.335027092473765</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.087838965939753</v>
+        <v>-4.282389079380295</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.905817832877097</v>
+        <v>-1.829477210682623</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.153434130987771</v>
+        <v>-4.125923679046019</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.006135580933006</v>
+        <v>-3.109492846190349</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2504923108302085</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2079531483162201</v>
+        <v>-0.2079531483162203</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1298937554743385</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.207690015286543</v>
+        <v>-0.2017074099651008</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2789421860914674</v>
+        <v>-0.2805273752997271</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2165272561555525</v>
+        <v>-0.2277554550170419</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2036065711573324</v>
+        <v>-0.2088006806579757</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3130022858626235</v>
+        <v>-0.3090821524522118</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.260972956494116</v>
+        <v>-0.2667816306800885</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1892803914353171</v>
+        <v>-0.1860477164159776</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2776465041714836</v>
+        <v>-0.2735770916604602</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2296572412667021</v>
+        <v>-0.2270534678755101</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.01179503458763144</v>
+        <v>-0.007123319005864933</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1075381950318701</v>
+        <v>-0.1086960646977779</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.03896298114376614</v>
+        <v>-0.04315302241785312</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.07054597410310189</v>
+        <v>-0.07135969910867833</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1860564920047329</v>
+        <v>-0.1872554070666507</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1447868354189377</v>
+        <v>-0.1503830845189605</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.07998296700862406</v>
+        <v>-0.07772588096603666</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1741427762017724</v>
+        <v>-0.1739885553342042</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1258663496283985</v>
+        <v>-0.1289144992340815</v>
       </c>
     </row>
     <row r="34">
